--- a/examples/dev_sandbox/data/mini_grid/placing_matrix_all_components.xlsx
+++ b/examples/dev_sandbox/data/mini_grid/placing_matrix_all_components.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjordan\Documents\GitHub\ClearWater-riverine\examples\dev_sandbox\data\mini_grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A168CD1C-8F38-4CC0-BBF7-C17BDB3D34AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C04CA07-C62F-4FB5-BC09-EACEC326F9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{0D6685A3-9F3A-4630-99AF-4A1490A22806}"/>
+    <workbookView xWindow="40680" yWindow="0" windowWidth="26520" windowHeight="21000" activeTab="2" xr2:uid="{0D6685A3-9F3A-4630-99AF-4A1490A22806}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagram" sheetId="15" r:id="rId1"/>
-    <sheet name="Cell 0" sheetId="5" r:id="rId2"/>
-    <sheet name="Cell 1" sheetId="14" r:id="rId3"/>
-    <sheet name="Cell 4" sheetId="16" r:id="rId4"/>
-    <sheet name="Cell 6" sheetId="17" r:id="rId5"/>
-    <sheet name="Matrix" sheetId="2" r:id="rId6"/>
-    <sheet name="Matrix-No-Diffusion" sheetId="13" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId8"/>
-    <sheet name="Delta T" sheetId="1" r:id="rId9"/>
-    <sheet name="Face Area" sheetId="4" r:id="rId10"/>
-    <sheet name="Distance Between Cells" sheetId="8" r:id="rId11"/>
-    <sheet name="Flow Across Face" sheetId="10" r:id="rId12"/>
-    <sheet name="Total-No-Diffusion" sheetId="7" r:id="rId13"/>
-    <sheet name="Total" sheetId="6" r:id="rId14"/>
+    <sheet name="Constants" sheetId="18" r:id="rId2"/>
+    <sheet name="Cell 0" sheetId="5" r:id="rId3"/>
+    <sheet name="Cell 1" sheetId="14" r:id="rId4"/>
+    <sheet name="Cell 4" sheetId="16" r:id="rId5"/>
+    <sheet name="Cell 6" sheetId="17" r:id="rId6"/>
+    <sheet name="Matrix" sheetId="2" r:id="rId7"/>
+    <sheet name="Matrix-No-Diffusion" sheetId="13" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId9"/>
+    <sheet name="Delta T" sheetId="1" r:id="rId10"/>
+    <sheet name="Face Area" sheetId="4" r:id="rId11"/>
+    <sheet name="Distance Between Cells" sheetId="8" r:id="rId12"/>
+    <sheet name="Flow Across Face" sheetId="10" r:id="rId13"/>
+    <sheet name="Total-No-Diffusion" sheetId="7" r:id="rId14"/>
+    <sheet name="Total" sheetId="6" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="72">
   <si>
     <t>n+1</t>
   </si>
@@ -278,6 +279,15 @@
   </si>
   <si>
     <t>C_7</t>
+  </si>
+  <si>
+    <t>https://doc.cfd.direct/notes/cfd-general-principles/example-of-building-a-matrix-equation</t>
+  </si>
+  <si>
+    <t>Diffusion Coefficient</t>
+  </si>
+  <si>
+    <t>http://www.hypertextbookshop.com/biofilmbook/working_version/artifacts/tables/Module_004/Table4-1_DiffCoeffH2O.htm</t>
   </si>
 </sst>
 </file>
@@ -709,7 +719,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>83945</xdr:rowOff>
+      <xdr:rowOff>87120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1078,6 +1088,176 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8500680-5B59-40AC-AB01-A466D4D431DD}">
+  <dimension ref="B1:M9"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="45.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="8.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3">
+        <v>4</v>
+      </c>
+      <c r="H2" s="3">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3">
+        <v>6</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>4.1666366000000003E-2</v>
+      </c>
+      <c r="G3">
+        <v>-4.1666683000000003E-2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>8.3342552185058594</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>-4.1666366000000003E-2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>4.1666266E-2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>8.3342552185058594</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>4.1666683000000003E-2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>11.166705156366</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+      <c r="K8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="3">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>-4.1666266E-2</v>
+      </c>
+      <c r="I9">
+        <v>4.1666266E-2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <v>6.6666666666666599</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0995DFA7-E61E-4ADC-BFF8-E39AADF9E9D6}">
   <dimension ref="B1:M9"/>
   <sheetViews>
@@ -1253,7 +1433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EEBBD86-2495-4984-B5F3-6D4DD628368B}">
   <dimension ref="B1:M9"/>
   <sheetViews>
@@ -1378,7 +1558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FED8B94-C086-4105-BBEE-59F985EE19AB}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1390,7 +1570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCAC273-7DB2-44F4-A0A4-6FE5EDD8BB88}">
   <dimension ref="B1:W18"/>
   <sheetViews>
@@ -1457,11 +1637,11 @@
       </c>
       <c r="C3">
         <f>Matrix!C3+'Delta T'!C3+'Distance Between Cells'!C3</f>
-        <v>0.4666745781626857</v>
+        <v>0.16666796240125437</v>
       </c>
       <c r="D3">
         <f>Matrix!D3+'Delta T'!D3+'Distance Between Cells'!D3</f>
-        <v>-0.1000022080644755</v>
+        <v>-1.8800415116121397E-8</v>
       </c>
       <c r="E3">
         <f>Matrix!E3+'Delta T'!E3+'Distance Between Cells'!E3</f>
@@ -1473,7 +1653,7 @@
       </c>
       <c r="G3">
         <f>Matrix!G3+'Delta T'!G3+'Distance Between Cells'!G3</f>
-        <v>-0.28333782709821015</v>
+        <v>-8.3333400600839241E-2</v>
       </c>
       <c r="H3">
         <f>Matrix!H3+'Delta T'!H3+'Distance Between Cells'!H3</f>
@@ -1496,11 +1676,11 @@
       </c>
       <c r="C4">
         <f>Matrix!C4+'Delta T'!C4+'Distance Between Cells'!C4</f>
-        <v>0.30000490142422848</v>
+        <v>-8.3332754800415118E-2</v>
       </c>
       <c r="D4">
         <f>Matrix!D4+'Delta T'!D4+'Distance Between Cells'!D4</f>
-        <v>6.6664221268857821E-2</v>
+        <v>0.16666648573403722</v>
       </c>
       <c r="E4">
         <f>Matrix!E4+'Delta T'!E4+'Distance Between Cells'!E4</f>
@@ -1520,7 +1700,7 @@
       </c>
       <c r="I4">
         <f>Matrix!I4+'Delta T'!I4+'Distance Between Cells'!I4</f>
-        <v>-0.20000153602641962</v>
+        <v>-3.7600288772966896E-8</v>
       </c>
       <c r="K4" t="s">
         <v>3</v>
@@ -1625,7 +1805,7 @@
       </c>
       <c r="C7">
         <f>Matrix!C7+'Delta T'!C7+'Distance Between Cells'!C7</f>
-        <v>-0.20000446409821016</v>
+        <v>-3.7600839250463518E-8</v>
       </c>
       <c r="D7">
         <f>Matrix!D7+'Delta T'!D7+'Distance Between Cells'!D7</f>
@@ -1641,7 +1821,7 @@
       </c>
       <c r="G7">
         <f>Matrix!G7+'Delta T'!G7+'Distance Between Cells'!G7</f>
-        <v>0.35333790376487678</v>
+        <v>0.1533334772675059</v>
       </c>
       <c r="H7">
         <f>Matrix!H7+'Delta T'!H7+'Distance Between Cells'!H7</f>
@@ -1707,7 +1887,7 @@
       </c>
       <c r="D9">
         <f>Matrix!D9+'Delta T'!D9+'Distance Between Cells'!D9</f>
-        <v>-4.1666266E-2</v>
+        <v>-8.333257360028877E-2</v>
       </c>
       <c r="E9">
         <f>Matrix!E9+'Delta T'!E9+'Distance Between Cells'!E9</f>
@@ -1727,7 +1907,7 @@
       </c>
       <c r="I9">
         <f>Matrix!I9+'Delta T'!I9+'Distance Between Cells'!I9</f>
-        <v>4.1666266E-2</v>
+        <v>0.11166630360028879</v>
       </c>
       <c r="K9" t="s">
         <v>7</v>
@@ -1742,7 +1922,7 @@
       </c>
       <c r="E12" cm="1">
         <f t="array" ref="E12:E18">MMULT(MINVERSE(C3:I9), M3:M9)</f>
-        <v>-159.45328854996359</v>
+        <v>86.41804477273952</v>
       </c>
     </row>
     <row r="13" spans="2:23" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1750,7 +1930,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>-661.26708021361105</v>
+        <v>93.214384078684006</v>
       </c>
     </row>
     <row r="14" spans="2:23" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1774,7 +1954,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>-58.653951778005791</v>
+        <v>72.826290805859344</v>
       </c>
     </row>
     <row r="17" spans="4:5" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1790,7 +1970,7 @@
         <v>7</v>
       </c>
       <c r="E18">
-        <v>-501.26554163881627</v>
+        <v>129.26425182101087</v>
       </c>
     </row>
   </sheetData>
@@ -1802,7 +1982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CA6E72-7372-4C3B-AD40-0CE7B3853F9B}">
   <dimension ref="B1:U18"/>
   <sheetViews>
@@ -1869,11 +2049,11 @@
       </c>
       <c r="C3">
         <f>Matrix!C3+'Delta T'!C3+'Face Area'!C3+'Distance Between Cells'!C3</f>
-        <v>0.76668134925033171</v>
+        <v>0.46667473348890037</v>
       </c>
       <c r="D3">
         <f>Matrix!D3+'Delta T'!D3+'Face Area'!D3+'Distance Between Cells'!D3</f>
-        <v>-0.20000445873586151</v>
+        <v>-0.10000226947180112</v>
       </c>
       <c r="E3">
         <f>Matrix!E3+'Delta T'!E3+'Face Area'!E3+'Distance Between Cells'!E3</f>
@@ -1885,7 +2065,7 @@
       </c>
       <c r="G3">
         <f>Matrix!G3+'Delta T'!G3+'Face Area'!G3+'Distance Between Cells'!G3</f>
-        <v>-0.48334234751446015</v>
+        <v>-0.28333792101708921</v>
       </c>
       <c r="H3">
         <f>Matrix!H3+'Delta T'!H3+'Face Area'!H3+'Distance Between Cells'!H3</f>
@@ -1908,11 +2088,11 @@
       </c>
       <c r="C4">
         <f>Matrix!C4+'Delta T'!C4+'Face Area'!C4+'Distance Between Cells'!C4</f>
-        <v>0.20000265075284246</v>
+        <v>-0.18333500547180112</v>
       </c>
       <c r="D4">
         <f>Matrix!D4+'Delta T'!D4+'Face Area'!D4+'Distance Between Cells'!D4</f>
-        <v>0.36666788337823286</v>
+        <v>0.46667014784341221</v>
       </c>
       <c r="E4">
         <f>Matrix!E4+'Delta T'!E4+'Face Area'!E4+'Distance Between Cells'!E4</f>
@@ -1932,7 +2112,7 @@
       </c>
       <c r="I4">
         <f>Matrix!I4+'Delta T'!I4+'Face Area'!I4+'Distance Between Cells'!I4</f>
-        <v>-0.40000294746440762</v>
+        <v>-0.20000144903827677</v>
       </c>
       <c r="K4" t="s">
         <v>3</v>
@@ -2037,7 +2217,7 @@
       </c>
       <c r="C7">
         <f>Matrix!C7+'Delta T'!C7+'Face Area'!C7+'Distance Between Cells'!C7</f>
-        <v>-0.40000898451446915</v>
+        <v>-0.20000455801709824</v>
       </c>
       <c r="D7">
         <f>Matrix!D7+'Delta T'!D7+'Face Area'!D7+'Distance Between Cells'!D7</f>
@@ -2053,7 +2233,7 @@
       </c>
       <c r="G7">
         <f>Matrix!G7+'Delta T'!G7+'Face Area'!G7+'Distance Between Cells'!G7</f>
-        <v>0.55334242418113577</v>
+        <v>0.35333799768376489</v>
       </c>
       <c r="H7">
         <f>Matrix!H7+'Delta T'!H7+'Face Area'!H7+'Distance Between Cells'!H7</f>
@@ -2119,7 +2299,7 @@
       </c>
       <c r="D9">
         <f>Matrix!D9+'Delta T'!D9+'Face Area'!D9+'Distance Between Cells'!D9</f>
-        <v>-0.241667677437988</v>
+        <v>-0.28333398503827678</v>
       </c>
       <c r="E9">
         <f>Matrix!E9+'Delta T'!E9+'Face Area'!E9+'Distance Between Cells'!E9</f>
@@ -2139,7 +2319,7 @@
       </c>
       <c r="I9">
         <f>Matrix!I9+'Delta T'!I9+'Face Area'!I9+'Distance Between Cells'!I9</f>
-        <v>0.241667677437988</v>
+        <v>0.31166771503827678</v>
       </c>
       <c r="K9" t="s">
         <v>7</v>
@@ -2154,7 +2334,7 @@
       </c>
       <c r="E12" cm="1">
         <f t="array" ref="E12:E18">MMULT(MINVERSE(C3:I9), M3:M9)</f>
-        <v>125.36120513879033</v>
+        <v>89.763633613931248</v>
       </c>
     </row>
     <row r="13" spans="2:21" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2162,7 +2342,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>171.10512162172358</v>
+        <v>102.05047222193792</v>
       </c>
     </row>
     <row r="14" spans="2:21" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2186,7 +2366,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>110.80356546342284</v>
+        <v>82.41355646496622</v>
       </c>
     </row>
     <row r="17" spans="4:5" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2202,7 +2382,7 @@
         <v>7</v>
       </c>
       <c r="E18">
-        <v>198.69121313939181</v>
+        <v>114.16336026969137</v>
       </c>
     </row>
   </sheetData>
@@ -2216,11 +2396,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1C1EA4-B6EB-4A45-9877-35DDB2F0DB00}">
+  <dimension ref="B5:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="18.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <f>18.8*10^-9</f>
+        <v>1.8800000000000003E-8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5779220-0CA2-48BC-B882-E6E428182D5B}">
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2375,7 +2589,8 @@
         <v>5.0001104032237746</v>
       </c>
       <c r="H12">
-        <v>0.1</v>
+        <f>Constants!B6</f>
+        <v>1.8800000000000003E-8</v>
       </c>
       <c r="I12" s="5">
         <v>500002.5</v>
@@ -2415,7 +2630,8 @@
         <v>5.0001116024552541</v>
       </c>
       <c r="H13">
-        <v>0.1</v>
+        <f>H12</f>
+        <v>1.8800000000000003E-8</v>
       </c>
       <c r="I13" s="5">
         <v>500002.5</v>
@@ -2593,7 +2809,7 @@
       </c>
       <c r="H36" s="6">
         <f>G12*H12/M12</f>
-        <v>0.1000022080644755</v>
+        <v>1.8800415116121397E-8</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>3</v>
@@ -2603,7 +2819,7 @@
       </c>
       <c r="K36" s="6">
         <f>G12*H12/M12</f>
-        <v>0.1000022080644755</v>
+        <v>1.8800415116121397E-8</v>
       </c>
       <c r="L36" s="6" t="s">
         <v>2</v>
@@ -2632,7 +2848,7 @@
     <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="H40" s="6">
         <f>G13*H13/M13</f>
-        <v>0.20000446409821016</v>
+        <v>3.7600839250463518E-8</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>5</v>
@@ -2642,7 +2858,7 @@
       </c>
       <c r="K40" s="6">
         <f>G13*H13/M13</f>
-        <v>0.20000446409821016</v>
+        <v>3.7600839250463518E-8</v>
       </c>
       <c r="L40" s="6" t="s">
         <v>2</v>
@@ -2736,17 +2952,17 @@
       </c>
       <c r="B48" s="6">
         <f>K36+K40</f>
-        <v>0.30000667216268567</v>
+        <v>5.6401254366584912E-8</v>
       </c>
       <c r="C48" s="6">
         <f>-H36</f>
-        <v>-0.1000022080644755</v>
+        <v>-1.8800415116121397E-8</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6">
         <f>-H40</f>
-        <v>-0.20000446409821016</v>
+        <v>-3.7600839250463518E-8</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -2758,11 +2974,11 @@
       </c>
       <c r="B50">
         <f>SUM(B46:B48)</f>
-        <v>0.42500821216268569</v>
+        <v>0.12500159640125436</v>
       </c>
       <c r="C50">
         <f t="shared" ref="C50:I50" si="0">SUM(C46:C48)</f>
-        <v>-0.1000022080644755</v>
+        <v>-1.8800415116121397E-8</v>
       </c>
       <c r="D50">
         <f t="shared" si="0"/>
@@ -2774,7 +2990,7 @@
       </c>
       <c r="F50">
         <f t="shared" si="0"/>
-        <v>-0.24167114409821017</v>
+        <v>-4.1666717600839245E-2</v>
       </c>
       <c r="G50">
         <f t="shared" si="0"/>
@@ -2843,12 +3059,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E4236B-66F9-423D-A03D-51068852B328}">
   <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:H19"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2998,7 +3214,8 @@
         <v>5.0001104032237746</v>
       </c>
       <c r="H12">
-        <v>0.1</v>
+        <f>Constants!B6</f>
+        <v>1.8800000000000003E-8</v>
       </c>
       <c r="I12" s="5">
         <v>500002.5</v>
@@ -3038,7 +3255,8 @@
         <v>5.0000384006604905</v>
       </c>
       <c r="H13">
-        <v>0.1</v>
+        <f>H12</f>
+        <v>1.8800000000000003E-8</v>
       </c>
       <c r="I13" s="5">
         <v>500007.5</v>
@@ -3216,7 +3434,7 @@
       </c>
       <c r="H36" s="6">
         <f>G12*H12/M12</f>
-        <v>0.1000022080644755</v>
+        <v>1.8800415116121397E-8</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>2</v>
@@ -3226,7 +3444,7 @@
       </c>
       <c r="K36" s="6">
         <f>G12*H12/M12</f>
-        <v>0.1000022080644755</v>
+        <v>1.8800415116121397E-8</v>
       </c>
       <c r="L36" s="6" t="s">
         <v>3</v>
@@ -3255,7 +3473,7 @@
     <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="H40" s="6">
         <f>G13*H13/M13</f>
-        <v>0.20000153602641962</v>
+        <v>3.7600288772966896E-8</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>7</v>
@@ -3265,7 +3483,7 @@
       </c>
       <c r="K40" s="6">
         <f>G13*H13/M13</f>
-        <v>0.20000153602641962</v>
+        <v>3.7600288772966896E-8</v>
       </c>
       <c r="L40" s="6" t="s">
         <v>3</v>
@@ -3322,10 +3540,7 @@
       <c r="A46" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="8">
-        <f>B36</f>
-        <v>8.3333893333333325E-2</v>
-      </c>
+      <c r="B46" s="8"/>
       <c r="C46" s="8">
         <f>B36</f>
         <v>8.3333893333333325E-2</v>
@@ -3361,12 +3576,12 @@
         <v>55</v>
       </c>
       <c r="B48" s="6">
-        <f>K36+K40</f>
-        <v>0.30000374409089514</v>
+        <f>H36*-1</f>
+        <v>-1.8800415116121397E-8</v>
       </c>
       <c r="C48" s="6">
-        <f>-H36</f>
-        <v>-0.1000022080644755</v>
+        <f>K40+K36</f>
+        <v>5.640070388908829E-8</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
@@ -3374,7 +3589,7 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6">
         <f>-H40</f>
-        <v>-0.20000153602641962</v>
+        <v>-3.7600288772966896E-8</v>
       </c>
       <c r="I48" s="6"/>
     </row>
@@ -3384,11 +3599,11 @@
       </c>
       <c r="B50">
         <f>SUM(B46:B48)</f>
-        <v>0.34167126742422849</v>
+        <v>-4.1666388800415115E-2</v>
       </c>
       <c r="C50">
         <f t="shared" ref="C50:I50" si="0">SUM(C46:C48)</f>
-        <v>2.4997955268857827E-2</v>
+        <v>0.12500021973403722</v>
       </c>
       <c r="D50">
         <f t="shared" si="0"/>
@@ -3408,7 +3623,7 @@
       </c>
       <c r="H50">
         <f t="shared" si="0"/>
-        <v>-0.20000153602641962</v>
+        <v>-3.7600288772966896E-8</v>
       </c>
       <c r="I50">
         <f t="shared" si="0"/>
@@ -3425,7 +3640,7 @@
       </c>
       <c r="B51">
         <f>B46+B47</f>
-        <v>4.1667523333333324E-2</v>
+        <v>-4.1666370000000001E-2</v>
       </c>
       <c r="C51">
         <f t="shared" ref="C51:I51" si="1">C46+C47</f>
@@ -3470,12 +3685,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3426ABE-99FB-4A09-878D-0022A8B4B1C7}">
   <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3625,7 +3840,8 @@
         <v>5.0001116024552541</v>
       </c>
       <c r="H12">
-        <v>0.1</v>
+        <f>Constants!B6</f>
+        <v>1.8800000000000003E-8</v>
       </c>
       <c r="I12" s="5">
         <v>500002.5</v>
@@ -3649,6 +3865,9 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
+      <c r="P13" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="P14" t="s">
@@ -3788,7 +4007,7 @@
       </c>
       <c r="H36" s="6">
         <f>G12*H12/M12</f>
-        <v>0.20000446409821016</v>
+        <v>3.7600839250463518E-8</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>2</v>
@@ -3798,7 +4017,7 @@
       </c>
       <c r="K36" s="6">
         <f>G12*H12/M12</f>
-        <v>0.20000446409821016</v>
+        <v>3.7600839250463518E-8</v>
       </c>
       <c r="L36" s="6" t="s">
         <v>5</v>
@@ -3911,14 +4130,14 @@
       </c>
       <c r="B48" s="6">
         <f>-H36</f>
-        <v>-0.20000446409821016</v>
+        <v>-3.7600839250463518E-8</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6">
         <f>K36</f>
-        <v>0.20000446409821016</v>
+        <v>3.7600839250463518E-8</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -3930,7 +4149,7 @@
       </c>
       <c r="B50">
         <f>SUM(B46:B48)</f>
-        <v>-0.20000446409821016</v>
+        <v>-3.7600839250463518E-8</v>
       </c>
       <c r="C50">
         <f t="shared" ref="C50:I50" si="0">SUM(C46:C48)</f>
@@ -3946,7 +4165,7 @@
       </c>
       <c r="F50">
         <f t="shared" si="0"/>
-        <v>0.3116712207648768</v>
+        <v>0.11166679426750591</v>
       </c>
       <c r="G50">
         <f t="shared" si="0"/>
@@ -4016,12 +4235,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F1D4CD-3FDB-4235-A1C3-31288C66CE2D}">
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4171,7 +4390,8 @@
         <v>5.0000384006604905</v>
       </c>
       <c r="H12">
-        <v>0.1</v>
+        <f>Constants!B6</f>
+        <v>1.8800000000000003E-8</v>
       </c>
       <c r="I12" s="5">
         <v>500007.5</v>
@@ -4334,7 +4554,7 @@
       </c>
       <c r="H36" s="6">
         <f>G12*H12/M12</f>
-        <v>0.20000153602641962</v>
+        <v>3.7600288772966896E-8</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>3</v>
@@ -4344,7 +4564,7 @@
       </c>
       <c r="K36" s="6">
         <f>G12*H12/M12</f>
-        <v>0.20000153602641962</v>
+        <v>3.7600288772966896E-8</v>
       </c>
       <c r="L36" s="6" t="s">
         <v>7</v>
@@ -4458,7 +4678,7 @@
       <c r="B48" s="6"/>
       <c r="C48" s="6">
         <f>H36*-1</f>
-        <v>-0.20000153602641962</v>
+        <v>-3.7600288772966896E-8</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
@@ -4466,7 +4686,7 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6">
         <f>K36</f>
-        <v>0.20000153602641962</v>
+        <v>3.7600288772966896E-8</v>
       </c>
       <c r="I48" s="6"/>
     </row>
@@ -4480,7 +4700,7 @@
       </c>
       <c r="C50">
         <f t="shared" ref="C50:I50" si="0">SUM(C46:C48)</f>
-        <v>-0.24166780602641963</v>
+        <v>-4.166630760028877E-2</v>
       </c>
       <c r="D50">
         <f t="shared" si="0"/>
@@ -4500,7 +4720,7 @@
       </c>
       <c r="H50">
         <f t="shared" si="0"/>
-        <v>0.27000153602641963</v>
+        <v>7.0000037600288778E-2</v>
       </c>
       <c r="I50">
         <f t="shared" si="0"/>
@@ -4562,12 +4782,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8666B46-C872-40BF-8072-9D3544872922}">
   <dimension ref="B1:N19"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="45.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4636,11 +4856,11 @@
       </c>
       <c r="C3">
         <f>'Cell 0'!B50</f>
-        <v>0.42500821216268569</v>
+        <v>0.12500159640125436</v>
       </c>
       <c r="D3">
         <f>'Cell 0'!C50</f>
-        <v>-0.1000022080644755</v>
+        <v>-1.8800415116121397E-8</v>
       </c>
       <c r="E3">
         <f>'Cell 0'!D50</f>
@@ -4652,7 +4872,7 @@
       </c>
       <c r="G3">
         <f>'Cell 0'!F50</f>
-        <v>-0.24167114409821017</v>
+        <v>-4.1666717600839245E-2</v>
       </c>
       <c r="H3">
         <f>'Cell 0'!G50</f>
@@ -4680,11 +4900,11 @@
       </c>
       <c r="C4">
         <f>'Cell 1'!B50</f>
-        <v>0.34167126742422849</v>
+        <v>-4.1666388800415115E-2</v>
       </c>
       <c r="D4">
         <f>'Cell 1'!C50</f>
-        <v>2.4997955268857827E-2</v>
+        <v>0.12500021973403722</v>
       </c>
       <c r="E4">
         <f>'Cell 1'!D50</f>
@@ -4704,7 +4924,7 @@
       </c>
       <c r="I4">
         <f>'Cell 1'!H50</f>
-        <v>-0.20000153602641962</v>
+        <v>-3.7600288772966896E-8</v>
       </c>
       <c r="J4">
         <f>'Cell 1'!I50</f>
@@ -4712,6 +4932,10 @@
       </c>
       <c r="L4" t="s">
         <v>3</v>
+      </c>
+      <c r="N4">
+        <f>'Cell 1'!M50</f>
+        <v>8.3342553333333331</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4745,6 +4969,9 @@
       <c r="L5" t="s">
         <v>1</v>
       </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="2:14" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
@@ -4777,6 +5004,9 @@
       <c r="L6" t="s">
         <v>4</v>
       </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="2:14" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
@@ -4784,7 +5014,7 @@
       </c>
       <c r="C7" cm="1">
         <f t="array" ref="C7:J7">'Cell 4'!B50:I50</f>
-        <v>-0.20000446409821016</v>
+        <v>-3.7600839250463518E-8</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4796,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3116712207648768</v>
+        <v>0.11166679426750591</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -4809,6 +5039,10 @@
       </c>
       <c r="L7" t="s">
         <v>5</v>
+      </c>
+      <c r="N7">
+        <f>'Cell 4'!M50</f>
+        <v>7.0000366666666665</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4842,13 +5076,45 @@
       <c r="L8" t="s">
         <v>6</v>
       </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="2:14" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <v>6</v>
       </c>
+      <c r="C9" cm="1">
+        <f t="array" ref="C9:J9">'Cell 6'!B50:I50</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>-4.166630760028877E-2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>7.0000037600288778E-2</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
       <c r="L9" t="s">
         <v>7</v>
+      </c>
+      <c r="N9">
+        <f>'Cell 6'!M50</f>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4882,49 +5148,73 @@
       <c r="L10" t="s">
         <v>68</v>
       </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="2:14" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" t="e" cm="1">
-        <f t="array" ref="E12">MMULT(MINVERSE(C3:J9), N3:N9)</f>
-        <v>#VALUE!</v>
+      <c r="E12" cm="1">
+        <f t="array" ref="E12:E19">MMULT(MINVERSE(C3:J10), N3:N10)</f>
+        <v>87.568582063597987</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
         <v>3</v>
       </c>
+      <c r="E13">
+        <v>95.863252658899384</v>
+      </c>
     </row>
     <row r="14" spans="2:14" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
         <v>1</v>
       </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="2:14" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
         <v>4</v>
       </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="2:14" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="4:4" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <v>62.686853376929044</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="4:4" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="4:4" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <v>152.29898161472687</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
         <v>68</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4935,7 +5225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B87C51-26FD-476D-A4AB-4D8217DA3413}">
   <dimension ref="B1:N18"/>
   <sheetViews>
@@ -5147,7 +5437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{094487B4-28D2-4B35-9AEF-1A41EBED104F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5157,174 +5447,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8500680-5B59-40AC-AB01-A466D4D431DD}">
-  <dimension ref="B1:M9"/>
-  <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="45.5" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="5" max="5" width="8.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3">
-        <v>4</v>
-      </c>
-      <c r="H2" s="3">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3">
-        <v>6</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>4.1666366000000003E-2</v>
-      </c>
-      <c r="G3">
-        <v>-4.1666683000000003E-2</v>
-      </c>
-      <c r="K3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3">
-        <v>8.3342552185058594</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>-4.1666366000000003E-2</v>
-      </c>
-      <c r="D4" s="4">
-        <v>4.1666266E-2</v>
-      </c>
-      <c r="K4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4">
-        <v>8.3342552185058594</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="3">
-        <v>2</v>
-      </c>
-      <c r="K5" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="3">
-        <v>3</v>
-      </c>
-      <c r="K6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="3">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>4.1666683000000003E-2</v>
-      </c>
-      <c r="K7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7">
-        <v>11.166705156366</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="3">
-        <v>5</v>
-      </c>
-      <c r="K8" t="s">
-        <v>6</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="3">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>-4.1666266E-2</v>
-      </c>
-      <c r="I9">
-        <v>4.1666266E-2</v>
-      </c>
-      <c r="K9" t="s">
-        <v>7</v>
-      </c>
-      <c r="M9">
-        <v>6.6666666666666599</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:I1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>